--- a/app/www/project_logbook.xlsx
+++ b/app/www/project_logbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -75,6 +75,33 @@
   </si>
   <si>
     <t xml:space="preserve">Test3-2023-11-03.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cindy Hurtado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cindymeliza@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise-2023-11-08.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnivores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secured</t>
   </si>
 </sst>
 </file>
@@ -534,6 +561,70 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/app/www/project_logbook.xlsx
+++ b/app/www/project_logbook.xlsx
@@ -1,115 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalR\mdm_form_submission\app\www\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4411B7-DC83-487D-B285-96D1CDAE8B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focal_Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survey_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privacy_Options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other_Detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study_Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data_File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multispecies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proj</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Test1-2023-11-03.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test3-2023-11-03.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cindy Hurtado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cindymeliza@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterprise2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterprise-2023-11-08.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carnivores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterprise2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secured</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Project_ID</t>
+  </si>
+  <si>
+    <t>Focal_Species</t>
+  </si>
+  <si>
+    <t>Survey_ID</t>
+  </si>
+  <si>
+    <t>Privacy_Options</t>
+  </si>
+  <si>
+    <t>Other_Detail</t>
+  </si>
+  <si>
+    <t>Study_Area</t>
+  </si>
+  <si>
+    <t>Data_File</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -145,6 +92,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,14 +382,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,170 +421,10 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/app/www/project_logbook.xlsx
+++ b/app/www/project_logbook.xlsx
@@ -1,62 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalR\mdm_form_submission\app\www\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4411B7-DC83-487D-B285-96D1CDAE8B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Project_ID</t>
-  </si>
-  <si>
-    <t>Focal_Species</t>
-  </si>
-  <si>
-    <t>Survey_ID</t>
-  </si>
-  <si>
-    <t>Privacy_Options</t>
-  </si>
-  <si>
-    <t>Other_Detail</t>
-  </si>
-  <si>
-    <t>Study_Area</t>
-  </si>
-  <si>
-    <t>Data_File</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focal_Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy_Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study_Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data_File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cindy Hurtado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cindymeliza@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multispecies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise-2023-11-08.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise2-2023-11-08.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,15 +121,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -382,16 +402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,10 +439,106 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/app/www/project_logbook.xlsx
+++ b/app/www/project_logbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t xml:space="preserve">Enterprise2-2023-11-08.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">badger</t>
   </si>
 </sst>
 </file>
@@ -537,6 +543,70 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/app/www/project_logbook.xlsx
+++ b/app/www/project_logbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t xml:space="preserve">badger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final1-2023-12-11.csv</t>
   </si>
 </sst>
 </file>
@@ -607,6 +619,38 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
